--- a/report/配置表.xlsx
+++ b/report/配置表.xlsx
@@ -1,61 +1,416 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="10176" yWindow="36" windowWidth="27552" windowHeight="11676"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配置表" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="配置表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+  <si>
+    <t>文件夹名称</t>
+  </si>
+  <si>
+    <t>加密密码</t>
+  </si>
+  <si>
+    <t>收件邮箱</t>
+  </si>
+  <si>
+    <t>收件人名称</t>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团渝东南自来水有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水资源产业股份有限公司荣昌分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水资源产业股份有限公司璧山自来水分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水资源产业股份有限公司高新区自来水分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水资源产业股份有限公司西城自来水分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆市铜梁区龙泽水务有限责任公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆市铜梁区龙泽水务有限责任公司龙源乡镇供水分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水资源产业股份有限公司东部自来水分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水资源产业股份有限公司璧山村镇自来水分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水资源产业股份有限公司渝大水务分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团渝东自来水有限公司梁平分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团渝东自来水有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团渝东自来水有限公司忠县分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团渝东自来水有限公司綦江分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团渝东北自来水有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团渝东北自来水有限公司巫溪分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团渝东北自来水有限公司奉节分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团渝东北自来水有限公司开州分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团渝东南自来水有限公司秀山分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团渝东南自来水有限公司酉阳分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆石柱水利水电实业开发有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆渝江水务有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水资源产业股份有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团原水水资源管理有限公司大足玉滩分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆市泽永水务有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆市黔江区小南海水电开发有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆市长寿区城市管理局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31651626@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31651626@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>171367828@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>513118176@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1158325462@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">645578343@qq.com </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>595267272@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44549732@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>454300676@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1270500183@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>596042454@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>616175119@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhishuichang@163.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>249166612@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1275980467@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>469128476@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>596858878@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>115097447@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 421636332@qq.com </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 389526221@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4378667@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1261768423@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>502243835@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>277831131@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>376251878@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1158997078@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水资源产业股份有限公司西城自来水分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆市铜梁区龙泽水务有限责任公司龙源乡镇供水分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水资源产业股份有限公司荣昌分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水资源产业股份有限公司璧山村镇自来水分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水资源产业股份有限公司渝大水务分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团渝东自来水有限公司梁平分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团渝东自来水有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团渝东自来水有限公司綦江分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团渝东北自来水有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团渝东北自来水有限公司巫溪分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团渝东北自来水有限公司奉节分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团渝东北自来水有限公司开州分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团渝东南自来水有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团渝东南自来水有限公司秀山分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水务环境控股集团渝东南自来水有限公司酉阳分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆石柱水利水电实业开发有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆渝江水务有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水资源产业股份有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆市泽永水务有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆市黔江区小南海水电开发有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆市长寿区城市管理局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆水资源产业股份有限公司璧山自来水分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>823812198@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>szjcbg202601</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <b/>
       <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <i val="1"/>
-      <color rgb="007F7F7F"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF4472C4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E7E6E6"/>
-        <bgColor rgb="00E7E6E6"/>
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -63,91 +418,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -435,114 +758,442 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="54.109375" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>文件夹名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>加密密码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>收件邮箱</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>收件人名称</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>铜梁公司</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>TL2026Feb</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>tongliang@example.com</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>铜梁公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>酉阳公司</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>YY2026Feb</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>youyang@example.com</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>酉阳公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>江津公司</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>JJ2026Feb</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>jiangjin@example.com</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>江津公司</t>
-        </is>
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C15" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2" tooltip="mailto:1158325462@qq.com"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C11" r:id="rId5" tooltip="mailto:454300676@qq.com"/>
+    <hyperlink ref="C12" r:id="rId6" tooltip="mailto:1270500183@qq.com"/>
+    <hyperlink ref="C13" r:id="rId7"/>
+    <hyperlink ref="C14" r:id="rId8" tooltip="mailto:616175119@qq.com"/>
+    <hyperlink ref="C20" r:id="rId9" tooltip="mailto:115097447@qq.com"/>
+    <hyperlink ref="C16" r:id="rId10"/>
+    <hyperlink ref="C19" r:id="rId11"/>
+    <hyperlink ref="C18" r:id="rId12"/>
+    <hyperlink ref="C4" r:id="rId13"/>
+    <hyperlink ref="C27" r:id="rId14"/>
+    <hyperlink ref="C10" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16" tooltip="mailto:1275980467@qq.com"/>
+    <hyperlink ref="C5" r:id="rId17" tooltip="mailto:171367828@qq.com"/>
+    <hyperlink ref="C3" r:id="rId18"/>
+    <hyperlink ref="C9" r:id="rId19" tooltip="mailto:595267272@qq.com"/>
+    <hyperlink ref="C28" r:id="rId20"/>
+    <hyperlink ref="C23" r:id="rId21"/>
+    <hyperlink ref="C24" r:id="rId22" tooltip="mailto:1261768423@qq.com"/>
+    <hyperlink ref="C25" r:id="rId23" tooltip="mailto:502243835@qq.com"/>
+    <hyperlink ref="C26" r:id="rId24"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>